--- a/ch7/range_chart.xlsx
+++ b/ch7/range_chart.xlsx
@@ -137,7 +137,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>성격표</a:t>
+              <a:t>성적표</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -151,7 +151,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet'!B2</f>
+              <f>'Sheet'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -169,7 +169,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet'!$B$3:$B$11</f>
+              <f>'Sheet'!$B$2:$B$11</f>
             </numRef>
           </val>
         </ser>
@@ -178,7 +178,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet'!C2</f>
+              <f>'Sheet'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -196,7 +196,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet'!$C$3:$C$11</f>
+              <f>'Sheet'!$C$2:$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -611,109 +611,109 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
+        <v>51</v>
+      </c>
+      <c r="C10" t="n">
         <v>44</v>
-      </c>
-      <c r="C10" t="n">
-        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
